--- a/files/misiones y visiones/misiones y visiones.xlsx
+++ b/files/misiones y visiones/misiones y visiones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\VDLab\2023\ComponentesProyectoInversionLABcapital\3.ComponenteCoCreacion\2.Índice de Innovación Pública 2023\Seguimentos\000. Análisis 2023\app\files\misiones y visiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7EFE42-1137-4555-941B-FDD44960A109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BB2681-FD2F-4148-A3A0-F1B6142BAF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="315">
   <si>
     <t>entidad</t>
   </si>
@@ -864,6 +864,219 @@
       </rPr>
       <t>2024, apoyada en el uso de tecnologías eficientes, un talento humano honesto y comprometido, a través del control y la colaboración armónica interinstitucional, será una Entidad garante de los derechos de las personas, donde prevalecerá el interés público, con atención oportuna, integral y efectiva; referente en innovación e investigación.</t>
     </r>
+  </si>
+  <si>
+    <t>_uuid</t>
+  </si>
+  <si>
+    <t>1392a4b4-32de-4eac-9433-9c120e273b37</t>
+  </si>
+  <si>
+    <t>6e2f4e1e-b26e-497d-b6f0-bf30f162c1dc</t>
+  </si>
+  <si>
+    <t>b00a799a-4c7e-449c-9eb8-8f3d4123e788</t>
+  </si>
+  <si>
+    <t>637445a7-7ee6-44a7-b053-a613f873248f</t>
+  </si>
+  <si>
+    <t>82e05c17326b46a1a87562fb9db97e0b</t>
+  </si>
+  <si>
+    <t>f4f22688-fb8a-40ba-b58b-13d334dbf897</t>
+  </si>
+  <si>
+    <t>1b8fefa0-afe4-4c6e-9a13-e15c39b76a4e</t>
+  </si>
+  <si>
+    <t>d65b7bcc-d53a-4543-a294-6f52e146281d</t>
+  </si>
+  <si>
+    <t>3563fdd5-9aeb-4b80-804f-ab21beaf454f</t>
+  </si>
+  <si>
+    <t>35492fe1-7cc7-4e86-a18c-aa42d2e6469c</t>
+  </si>
+  <si>
+    <t>0ac22659-e454-444e-9333-9e0b6b1731c6</t>
+  </si>
+  <si>
+    <t>16790b2a-7734-4ee5-8914-a100e6c136cb</t>
+  </si>
+  <si>
+    <t>0567f60c-47f5-43ce-a028-b80eaf88d37a</t>
+  </si>
+  <si>
+    <t>6d0b0be5-3af2-488e-9584-bdd829b27c40</t>
+  </si>
+  <si>
+    <t>d4736ade-3144-4127-bd1f-a428c77e125e</t>
+  </si>
+  <si>
+    <t>f1e3fb07-af80-40e9-b3ba-951392680ceb</t>
+  </si>
+  <si>
+    <t>29b462d1-a002-4c07-a854-1c82fc10829f</t>
+  </si>
+  <si>
+    <t>1dcd0622-9833-4ca8-8b09-ea7617ead3c3</t>
+  </si>
+  <si>
+    <t>31b7d251-5580-45d3-9e5b-e76853b78302</t>
+  </si>
+  <si>
+    <t>aee6112d-44a4-4cca-876c-fcde6582e9f2</t>
+  </si>
+  <si>
+    <t>dae08630-74c8-44c3-906c-d4b7fdbd4bfa</t>
+  </si>
+  <si>
+    <t>7685ff5a-9ae7-4ffc-b81d-8ab9fa125415</t>
+  </si>
+  <si>
+    <t>47a52a9a-d3fa-4c48-b3fe-5d6916c283e4</t>
+  </si>
+  <si>
+    <t>ee7bd620-6ee5-4108-8fa5-fa43df59f142</t>
+  </si>
+  <si>
+    <t>7e1205f0-4cd8-4e39-80fd-7651266ddc5f</t>
+  </si>
+  <si>
+    <t>8e512352-7788-420d-9f94-e0ba1018820f</t>
+  </si>
+  <si>
+    <t>1d8d452b-c609-4ae7-9b8c-567a1f28032f</t>
+  </si>
+  <si>
+    <t>594b1c29-91da-407a-93e6-57c8ffa8e22a</t>
+  </si>
+  <si>
+    <t>a835f2e5-8516-4942-8526-44d7338480bc</t>
+  </si>
+  <si>
+    <t>965af449-187b-477e-b052-6c8466485c06</t>
+  </si>
+  <si>
+    <t>9a322050-1f3a-4431-87f4-5d24fb1adcf5</t>
+  </si>
+  <si>
+    <t>93c5d9a1-9971-4450-ab5a-66a350eb158a</t>
+  </si>
+  <si>
+    <t>13c871d7-fe73-4392-8291-30cc78ffa857</t>
+  </si>
+  <si>
+    <t>9c4dae24-05a5-454b-bd06-b44f7b4b5aab</t>
+  </si>
+  <si>
+    <t>8f2013cb-a19d-4b94-82e1-dde826049c56</t>
+  </si>
+  <si>
+    <t>26cbed04-cff6-45d8-8c3b-98ac8e94a5de</t>
+  </si>
+  <si>
+    <t>e739d624-2335-4c9f-87af-db9ba828e296</t>
+  </si>
+  <si>
+    <t>6c08e1b7-e43e-42ef-ad4a-9bc3c77ed37f</t>
+  </si>
+  <si>
+    <t>1b09ae65-d423-41ce-bb04-76539e953cd1</t>
+  </si>
+  <si>
+    <t>e32446a6-18d0-481c-b2b4-3e32a9356113</t>
+  </si>
+  <si>
+    <t>e6e31363-d0e1-4ece-bc04-b52a0896a5c3</t>
+  </si>
+  <si>
+    <t>99890a0b-70de-4846-8562-08860ab50475</t>
+  </si>
+  <si>
+    <t>eb0a045e-2518-4482-a623-8351a9340e2a</t>
+  </si>
+  <si>
+    <t>e819483d-de24-47eb-9b19-97a2880958fe</t>
+  </si>
+  <si>
+    <t>ccb07bc2-67b9-4c6b-9d1e-8d84493cde19</t>
+  </si>
+  <si>
+    <t>1da7de14-57d3-4f35-8b1e-f66c3d95aeeb</t>
+  </si>
+  <si>
+    <t>f44cbd7c-171d-4b35-9133-8901fb67c3a0</t>
+  </si>
+  <si>
+    <t>df3c6d45-a610-452f-9f01-3efae7005f0f</t>
+  </si>
+  <si>
+    <t>6da76978-4091-4857-991a-24dbc6ac5894</t>
+  </si>
+  <si>
+    <t>2a1228b4-8ee2-424d-ac64-2c28d249f7f7</t>
+  </si>
+  <si>
+    <t>6b9496af-f22b-4ffa-8fd0-3715b7a4c44f</t>
+  </si>
+  <si>
+    <t>d8ee456f-f58d-423b-9407-1af8f7ee5faa</t>
+  </si>
+  <si>
+    <t>deca3f0e-aeac-4446-8e7c-793ba8cb2bb2</t>
+  </si>
+  <si>
+    <t>7a5e1933-2716-444c-81f2-b9f0d9497cc6</t>
+  </si>
+  <si>
+    <t>c4f36231-7247-483a-b21e-44e5d118db29</t>
+  </si>
+  <si>
+    <t>4345be1e-ba97-44b0-8bcb-dc935f6b691f</t>
+  </si>
+  <si>
+    <t>289452a5-d96a-41a2-89f0-a16058a70511</t>
+  </si>
+  <si>
+    <t>853d09e9-df1f-4a9b-a21c-5d2499e3ffa4</t>
+  </si>
+  <si>
+    <t>55d0f698-9b69-4a7f-8a64-33a3e2236f56</t>
+  </si>
+  <si>
+    <t>b3a1580a-2f11-468c-9336-e1ce3cc1e57b</t>
+  </si>
+  <si>
+    <t>924f505e-b985-4139-a03f-2075e23075d0</t>
+  </si>
+  <si>
+    <t>da3ccecf-b7ad-46f2-a759-edd4533cd47c</t>
+  </si>
+  <si>
+    <t>69a66e34-418d-4f80-85cd-f9510d2d524e</t>
+  </si>
+  <si>
+    <t>a6fa44d1-a682-4599-8e12-a0f1a12b6b69</t>
+  </si>
+  <si>
+    <t>e4cd18f0-b93e-43e3-9e70-b67b5b86101d</t>
+  </si>
+  <si>
+    <t>5026a6c5-bc28-4abe-ba16-84848fd70f3f</t>
+  </si>
+  <si>
+    <t>ce0f66f7-a7ad-4e4f-a631-f083237dcc0a</t>
+  </si>
+  <si>
+    <t>f40536a4-9859-440c-8dbe-6de07ea0c57f</t>
+  </si>
+  <si>
+    <t>d267f1c6-2620-4a80-815a-557a23492ba4</t>
+  </si>
+  <si>
+    <t>1b01632f-f169-46c5-be3a-d1c1eee6f58c</t>
   </si>
 </sst>
 </file>
@@ -987,16 +1200,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1303,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="111" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,25 +1526,29 @@
     <col min="2" max="2" width="71.42578125" customWidth="1"/>
     <col min="3" max="3" width="70.85546875" customWidth="1"/>
     <col min="4" max="4" width="89" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="E1" s="6" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
+      <c r="A2" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>75</v>
@@ -1339,14 +1556,16 @@
       <c r="C2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="1"/>
+      <c r="D2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
+      <c r="A3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>75</v>
@@ -1354,55 +1573,67 @@
       <c r="C3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>91</v>
+      <c r="D3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
+      <c r="A4" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>76</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>212</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>76</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>108</v>
+        <v>76</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
+      <c r="A7" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>75</v>
@@ -1410,27 +1641,33 @@
       <c r="C7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
+      <c r="D7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>99</v>
+        <v>76</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
+      <c r="A9" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>75</v>
@@ -1438,264 +1675,321 @@
       <c r="C9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
+      <c r="E12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>76</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>216</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>76</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>76</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>18</v>
+        <v>76</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>76</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>76</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>76</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>25</v>
+      <c r="E24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>26</v>
+        <v>105</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>27</v>
+        <v>107</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1704,586 +1998,712 @@
       <c r="C28" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="E28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="E33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="E44" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E46" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E47" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E48" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E50" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E52" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E53" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E54" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E55" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E56" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E57" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E58" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D59" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="E59" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E60" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E61" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E62" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E63" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D64" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="E64" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E65" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E66" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E67" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E68" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D69" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="E69" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -2292,26 +2712,36 @@
       <c r="C70" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="3" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>71</v>
+      <c r="E70" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>137</v>
+        <v>234</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>139</v>
+        <v>235</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E71" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D71" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D71" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D71">
+      <sortCondition ref="A1:A71"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
